--- a/부품견적서/(최신)재료구입 품의서(3조).xlsx
+++ b/부품견적서/(최신)재료구입 품의서(3조).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SFProject\doc\참고 자료\01. 프로젝트 설계\07. 부품 견적서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git test\doc\부품견적서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4251A0-21F3-486E-B7A6-3CFE47535477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB36330-241C-4D17-A8D5-E3BCBCD65F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16470" yWindow="885" windowWidth="15795" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요약" sheetId="1" r:id="rId1"/>
@@ -33,48 +33,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>https://www.devicemart.co.kr/goods/view?no=10916343</t>
   </si>
   <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1321195</t>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1358496</t>
-  </si>
-  <si>
     <t>https://www.devicemart.co.kr/goods/view?no=1321192</t>
   </si>
   <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=12232873</t>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=12539421</t>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1278835</t>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=38803</t>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1313388</t>
-  </si>
-  <si>
     <t>https://www.devicemart.co.kr/goods/view?no=1362013</t>
   </si>
   <si>
     <t>https://www.devicemart.co.kr/goods/view?no=1321196</t>
   </si>
   <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1384708</t>
-  </si>
-  <si>
     <t>스마트팩토리 SW개발 실무자 양성</t>
-  </si>
-  <si>
-    <t>완성형기어드모터 중형(+3000)</t>
   </si>
   <si>
     <t>https://www.coupang.com/vp/products/62301270?itemId=212724553&amp;vendorItemId=3587990540&amp;q=mdf&amp;itemsCount=36&amp;searchId=62d13e5523c04c3c956991f33d791c7f&amp;rank=1&amp;isAddedCart</t>
@@ -84,12 +57,6 @@
 + 안전커버 2개입 5m, 1개</t>
   </si>
   <si>
-    <t>건전지 AA</t>
-  </si>
-  <si>
-    <t>단가 (원)</t>
-  </si>
-  <si>
     <t>MesSage</t>
   </si>
   <si>
@@ -99,174 +66,195 @@
     <t>적외선 센서</t>
   </si>
   <si>
+    <t xml:space="preserve">모터드라이버 </t>
+  </si>
+  <si>
+    <t>DHT11 디지털 온습도 센서 모듈</t>
+  </si>
+  <si>
+    <t>DIY목재재단</t>
+  </si>
+  <si>
+    <t>문도원, 석혁주, 안병길, 이민성, 조은경</t>
+  </si>
+  <si>
+    <t>미송집성목_12T 400mmX1200mm</t>
+  </si>
+  <si>
+    <t>팀 장   연 락 처</t>
+  </si>
+  <si>
+    <t>판매처 (URL)</t>
+  </si>
+  <si>
+    <t>케이블 연장선 M/F</t>
+  </si>
+  <si>
+    <t>케이블 연장선 F/F</t>
+  </si>
+  <si>
+    <t>케이블 연장선 M/M</t>
+  </si>
+  <si>
+    <t>https://ideaplay6173.cafe24.com/product/detail.html?product_no=148&amp;cate_no=1&amp;display_group=3#none</t>
+  </si>
+  <si>
+    <t>모델명</t>
+  </si>
+  <si>
+    <t>부품명</t>
+  </si>
+  <si>
+    <t>수량</t>
+  </si>
+  <si>
+    <t>총 계</t>
+  </si>
+  <si>
+    <t>번호</t>
+  </si>
+  <si>
+    <t>3조</t>
+  </si>
+  <si>
+    <t>최재영</t>
+  </si>
+  <si>
+    <t>프로젝트 재료 구입 품의서</t>
+  </si>
+  <si>
+    <t>팀      번      호</t>
+  </si>
+  <si>
+    <t>작  성     일  자</t>
+  </si>
+  <si>
+    <t>팀  원     성  명</t>
+  </si>
+  <si>
+    <t>팀      명      칭</t>
+  </si>
+  <si>
+    <t>팀  장     성  명</t>
+  </si>
+  <si>
+    <t>과      정      명</t>
+  </si>
+  <si>
+    <t>010-5626-2050</t>
+  </si>
+  <si>
+    <t>아두이노 미니 릴레이모듈</t>
+  </si>
+  <si>
+    <t>https://www.coupang.com/vp/products/7046278942?itemId=17438366161&amp;vendorItemId=3061670979&amp;src=1191000&amp;spec=10999999&amp;addtag=400&amp;ctag=7046278942&amp;lptag=CFM19697740&amp;itime=20231114160047&amp;pageType=PRODUCT&amp;pageValue=7046278942&amp;wPcid=28014941380193789532203&amp;wRef=&amp;wTime=20231114160047&amp;redirect=landing&amp;mcid=8ecc71a31745420cb55f405aeb495737&amp;sharesource=sharebutton&amp;style=&amp;isshortened=Y&amp;settlement=N&amp;isAddedCart</t>
+  </si>
+  <si>
+    <t>아두이노 CdS 광/조도 센서 모듈</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬러 미니 브레드보드 170핀</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>투명</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1327438</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1329504</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1077951</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipTIME A1004</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>라즈베리 카메라</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1214325</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=10919287</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇팔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가구성 x</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티미터</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=12539421</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>건전지 AA(어댑터로 변경 예정)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>배터리케이스(12V)(삭제 예정)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>단가 VAT 포함</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1313388</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1278835</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1358496</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1321195</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://robotscience.kr/goods/view?no=17285</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이블 타이</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>선 정리 모듈</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>컨베이어 벨트</t>
-  </si>
-  <si>
-    <t>파워 릴레이</t>
-  </si>
-  <si>
-    <t xml:space="preserve">모터드라이버 </t>
-  </si>
-  <si>
-    <t>DHT11 디지털 온습도 센서 모듈</t>
-  </si>
-  <si>
-    <t>VAT(별도)</t>
-  </si>
-  <si>
-    <t>DIY목재재단</t>
-  </si>
-  <si>
-    <t>문도원, 석혁주, 안병길, 이민성, 조은경</t>
-  </si>
-  <si>
-    <t>미송집성목_12T 400mmX1200mm</t>
-  </si>
-  <si>
-    <t>LM2596 5V 전원 레귤레이터 모듈</t>
-  </si>
-  <si>
-    <t>팀 장   연 락 처</t>
-  </si>
-  <si>
-    <t>판매처 (URL)</t>
-  </si>
-  <si>
-    <t>배터리케이스(12V)</t>
-  </si>
-  <si>
-    <t>케이블 연장선 M/F</t>
-  </si>
-  <si>
-    <t>마이크로 HDMI선</t>
-  </si>
-  <si>
-    <t>케이블 연장선 F/F</t>
-  </si>
-  <si>
-    <t>케이블 연장선 M/M</t>
-  </si>
-  <si>
-    <t>https://ideaplay6173.cafe24.com/product/detail.html?product_no=148&amp;cate_no=1&amp;display_group=3#none</t>
-  </si>
-  <si>
-    <t>VAT(포함)</t>
-  </si>
-  <si>
-    <t>모델명</t>
-  </si>
-  <si>
-    <t>부품명</t>
-  </si>
-  <si>
-    <t>수량</t>
-  </si>
-  <si>
-    <t>총 계</t>
-  </si>
-  <si>
-    <t>번호</t>
-  </si>
-  <si>
-    <t>3조</t>
-  </si>
-  <si>
-    <t>최재영</t>
-  </si>
-  <si>
-    <t>프로젝트 재료 구입 품의서</t>
-  </si>
-  <si>
-    <t>팀      번      호</t>
-  </si>
-  <si>
-    <t>작  성     일  자</t>
-  </si>
-  <si>
-    <t>팀  원     성  명</t>
-  </si>
-  <si>
-    <t>팀      명      칭</t>
-  </si>
-  <si>
-    <t>팀  장     성  명</t>
-  </si>
-  <si>
-    <t>과      정      명</t>
-  </si>
-  <si>
-    <t>010-5626-2050</t>
-  </si>
-  <si>
-    <t>아두이노 미니 릴레이모듈</t>
-  </si>
-  <si>
-    <t>https://www.coupang.com/vp/products/7046278942?itemId=17438366161&amp;vendorItemId=3061670979&amp;src=1191000&amp;spec=10999999&amp;addtag=400&amp;ctag=7046278942&amp;lptag=CFM19697740&amp;itime=20231114160047&amp;pageType=PRODUCT&amp;pageValue=7046278942&amp;wPcid=28014941380193789532203&amp;wRef=&amp;wTime=20231114160047&amp;redirect=landing&amp;mcid=8ecc71a31745420cb55f405aeb495737&amp;sharesource=sharebutton&amp;style=&amp;isshortened=Y&amp;settlement=N&amp;isAddedCart</t>
-  </si>
-  <si>
-    <t>아두이노 CdS 광/조도 센서 모듈</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>컬러 미니 브레드보드 170핀</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>투명</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1327438</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1329504</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>브레드보드 400핀</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1328148</t>
-  </si>
-  <si>
-    <t>초음파 거리센서 모듈 HC-SR04</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1076851</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1077951</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ipTIME A1004</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>라즈베리 카메라</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1214325</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=10919287</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://robotscience.kr/goods/view?no=17285</t>
-  </si>
-  <si>
-    <t>로봇팔</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가구성 x</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +506,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -564,18 +552,12 @@
     <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -590,9 +572,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -641,6 +620,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1116,170 +1101,161 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" style="21" customWidth="1"/>
-    <col min="2" max="2" width="30.25" style="20" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="21" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="21" customWidth="1"/>
-    <col min="5" max="7" width="11.25" style="22" customWidth="1"/>
-    <col min="8" max="8" width="45.375" style="27" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="21"/>
+    <col min="1" max="1" width="5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="30.25" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="19" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="19" customWidth="1"/>
+    <col min="5" max="6" width="11.25" style="20" customWidth="1"/>
+    <col min="7" max="7" width="45.375" style="24" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-    </row>
-    <row r="3" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="26">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="3" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="39"/>
+      <c r="G4" s="23">
         <v>45244</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="37" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="39"/>
+      <c r="G5" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="39"/>
-    </row>
-    <row r="8" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="33"/>
+      <c r="E6" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="G6" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+    </row>
+    <row r="8" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>1</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>21</v>
+      <c r="B10" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="9">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="F10" s="10">
         <f>D10*E10</f>
-        <v>56000</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>45000</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>2</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>66</v>
+      <c r="B11" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="1">
@@ -1288,583 +1264,498 @@
       <c r="E11" s="9">
         <v>46640</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10">
+      <c r="F11" s="10">
+        <f t="shared" ref="F11:F32" si="0">D11*E11</f>
         <v>46640</v>
       </c>
-      <c r="H11" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G11" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>3</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>67</v>
+      <c r="B12" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="1">
         <v>2</v>
       </c>
       <c r="E12" s="9">
-        <v>44000</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10">
-        <f t="shared" ref="G12:G34" si="0">(D12*E12)+(D12*E12)*0.1</f>
-        <v>96800</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24200</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="0"/>
+        <v>48400</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>4</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>19</v>
+      <c r="B13" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1">
         <v>5</v>
       </c>
       <c r="E13" s="9">
-        <v>6500</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10">
+        <v>7150</v>
+      </c>
+      <c r="F13" s="10">
         <f t="shared" si="0"/>
         <v>35750</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G13" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>5</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>20</v>
+      <c r="B14" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14" s="9">
-        <v>900</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10">
-        <f t="shared" si="0"/>
-        <v>4950</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>990</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="0"/>
+        <v>6930</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>6</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>23</v>
+      <c r="B15" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E15" s="9">
-        <v>1800</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10">
-        <f t="shared" si="0"/>
-        <v>9900</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1980</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="0"/>
+        <v>5940</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
-        <v>7</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="9">
-        <v>2000</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10">
-        <f t="shared" si="0"/>
-        <v>11000</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1100</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="0"/>
+        <v>4400</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
-        <v>8</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="15"/>
       <c r="D17" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17" s="9">
-        <v>640</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10">
-        <f t="shared" si="0"/>
-        <v>2816</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>14300</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="0"/>
+        <v>14300</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
-        <v>9</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" s="9">
-        <v>1000</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10">
-        <f t="shared" si="0"/>
-        <v>4400</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2600</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="0"/>
+        <v>7800</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
-        <v>10</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="16"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3"/>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="9">
-        <v>14300</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10">
-        <f t="shared" si="0"/>
-        <v>15730</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>935</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="0"/>
+        <v>935</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
-        <v>11</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="26">
+        <v>935</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="0"/>
+        <v>935</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="9">
-        <v>2600</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10">
-        <f t="shared" si="0"/>
-        <v>8580</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
-        <v>12</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="9">
-        <v>850</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10">
-        <f t="shared" si="0"/>
         <v>935</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="F21" s="10">
+        <f t="shared" si="0"/>
+        <v>935</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
-        <v>13</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="29">
-        <v>850</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10">
-        <f t="shared" si="0"/>
-        <v>935</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2310</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="0"/>
+        <v>4620</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
+        <v>17</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="3"/>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="9">
-        <v>850</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10">
-        <f t="shared" si="0"/>
-        <v>935</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27320</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="0"/>
+        <v>27320</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
-        <v>15</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E24" s="9">
-        <v>2100</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10">
-        <f t="shared" si="0"/>
-        <v>9240</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>14850</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="0"/>
+        <v>14850</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
-        <v>16</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1">
         <v>2</v>
       </c>
       <c r="E25" s="9">
-        <v>2100</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10">
-        <f t="shared" si="0"/>
-        <v>4620</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1540</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="0"/>
+        <v>3080</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E26" s="9">
-        <v>27320</v>
+        <v>880</v>
       </c>
       <c r="F26" s="10">
-        <f t="shared" ref="F26:F34" si="1">D26*E26</f>
-        <v>27320</v>
-      </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>3520</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
-        <v>18</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="E27" s="9">
-        <v>14850</v>
+        <v>55000</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="1"/>
-        <v>14850</v>
-      </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>55000</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1">
-        <v>2</v>
-      </c>
-      <c r="E28" s="9">
-        <v>1540</v>
-      </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10">
-        <f t="shared" si="0"/>
-        <v>3388</v>
-      </c>
-      <c r="H28" s="30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="1">
-        <v>6</v>
-      </c>
-      <c r="E29" s="9">
-        <v>880</v>
-      </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10">
-        <f t="shared" si="0"/>
-        <v>5808</v>
-      </c>
-      <c r="H29" s="30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="1">
-        <v>2</v>
-      </c>
-      <c r="E30" s="9">
-        <v>1760</v>
-      </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10">
-        <f t="shared" si="0"/>
-        <v>3872</v>
-      </c>
-      <c r="H30" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
-        <v>22</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="1">
-        <v>6</v>
-      </c>
-      <c r="E31" s="9">
-        <v>1210</v>
-      </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10">
-        <f t="shared" si="0"/>
-        <v>7986</v>
-      </c>
-      <c r="H31" s="30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
-        <v>23</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="9">
-        <v>55000</v>
-      </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10">
-        <v>55000</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
-        <v>25</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="14">
-        <f>SUM(F10:F34,G10:G34)</f>
-        <v>427455</v>
-      </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="12"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="14">
+        <f>SUM(F10:F32)</f>
+        <v>326355</v>
+      </c>
+      <c r="G33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C33:E33"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C7:G7"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H10" r:id="rId2" location="none" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H24" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H25" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H27" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H26" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="H28" r:id="rId7" xr:uid="{26B772D8-B701-45E8-A58E-EDE4E328555A}"/>
-    <hyperlink ref="H29" r:id="rId8" xr:uid="{22872939-2EE6-4282-AC29-D0BA98D91463}"/>
-    <hyperlink ref="H31" r:id="rId9" xr:uid="{B5ECA5A5-1866-4F32-A9EE-B7F85448DDF5}"/>
-    <hyperlink ref="H12" r:id="rId10" xr:uid="{C29A9B3F-3D72-412E-9732-765F8AF3AFC8}"/>
-    <hyperlink ref="H11" r:id="rId11" xr:uid="{3CDDA6E1-11E5-4E50-B399-06AE559216A4}"/>
-    <hyperlink ref="H20" r:id="rId12" xr:uid="{6A525696-25A8-4692-A91A-0BE463D5AFAE}"/>
+    <hyperlink ref="G14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G10" r:id="rId2" location="none" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G22" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G24" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G23" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G25" r:id="rId6" xr:uid="{26B772D8-B701-45E8-A58E-EDE4E328555A}"/>
+    <hyperlink ref="G26" r:id="rId7" xr:uid="{22872939-2EE6-4282-AC29-D0BA98D91463}"/>
+    <hyperlink ref="G12" r:id="rId8" xr:uid="{C29A9B3F-3D72-412E-9732-765F8AF3AFC8}"/>
+    <hyperlink ref="G11" r:id="rId9" xr:uid="{3CDDA6E1-11E5-4E50-B399-06AE559216A4}"/>
+    <hyperlink ref="G18" r:id="rId10" xr:uid="{6A525696-25A8-4692-A91A-0BE463D5AFAE}"/>
+    <hyperlink ref="G17" r:id="rId11" xr:uid="{87D06CDB-7735-4711-AD89-841ECE5F4DBE}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{6C36CFB4-395E-4110-8447-12174A78C08A}"/>
+    <hyperlink ref="G15" r:id="rId13" xr:uid="{E5F53235-8E25-49D2-B6A8-2B9CC7807098}"/>
+    <hyperlink ref="G16" r:id="rId14" xr:uid="{751407F4-53E6-4560-92F8-42383C412FA8}"/>
+    <hyperlink ref="G19" r:id="rId15" xr:uid="{B7E548C5-12E9-4CBB-945D-B17E58EB9DD8}"/>
+    <hyperlink ref="G27" r:id="rId16" xr:uid="{A7C06625-E2B0-434A-8FCF-4CA6773F894A}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait"/>

--- a/부품견적서/(최신)재료구입 품의서(3조).xlsx
+++ b/부품견적서/(최신)재료구입 품의서(3조).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git test\doc\부품견적서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB36330-241C-4D17-A8D5-E3BCBCD65F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903A715C-EA0F-4CA1-B977-25B8F089A45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>https://www.devicemart.co.kr/goods/view?no=10916343</t>
   </si>
@@ -255,6 +255,10 @@
   </si>
   <si>
     <t>컨베이어 벨트</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자, 십자 드라이버</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -595,6 +599,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -604,12 +623,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -617,15 +630,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1104,7 +1108,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1122,15 +1126,15 @@
       <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
@@ -1139,68 +1143,68 @@
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="38" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="39"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="23">
         <v>45244</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="38" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="39"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="38" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="39"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="34" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
     </row>
     <row r="8" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
@@ -1684,7 +1688,9 @@
       <c r="A31" s="8">
         <v>27</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
       <c r="E31" s="9"/>
@@ -1713,9 +1719,9 @@
       <c r="B33" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="36"/>
       <c r="F33" s="14">
         <f>SUM(F10:F32)</f>
         <v>326355</v>
@@ -1724,6 +1730,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
@@ -1731,12 +1743,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>

--- a/부품견적서/(최신)재료구입 품의서(3조).xlsx
+++ b/부품견적서/(최신)재료구입 품의서(3조).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git test\doc\부품견적서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903A715C-EA0F-4CA1-B977-25B8F089A45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDC0BB1-1C97-4D8C-A117-A4B977514B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요약" sheetId="1" r:id="rId1"/>
@@ -33,15 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=10916343</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>https://www.devicemart.co.kr/goods/view?no=1321192</t>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1362013</t>
   </si>
   <si>
     <t>https://www.devicemart.co.kr/goods/view?no=1321196</t>
@@ -60,27 +54,15 @@
     <t>MesSage</t>
   </si>
   <si>
-    <t xml:space="preserve">서보모터 </t>
-  </si>
-  <si>
     <t>적외선 센서</t>
   </si>
   <si>
     <t xml:space="preserve">모터드라이버 </t>
   </si>
   <si>
-    <t>DHT11 디지털 온습도 센서 모듈</t>
-  </si>
-  <si>
-    <t>DIY목재재단</t>
-  </si>
-  <si>
     <t>문도원, 석혁주, 안병길, 이민성, 조은경</t>
   </si>
   <si>
-    <t>미송집성목_12T 400mmX1200mm</t>
-  </si>
-  <si>
     <t>팀 장   연 락 처</t>
   </si>
   <si>
@@ -96,169 +78,242 @@
     <t>케이블 연장선 M/M</t>
   </si>
   <si>
+    <t>모델명</t>
+  </si>
+  <si>
+    <t>부품명</t>
+  </si>
+  <si>
+    <t>수량</t>
+  </si>
+  <si>
+    <t>총 계</t>
+  </si>
+  <si>
+    <t>번호</t>
+  </si>
+  <si>
+    <t>3조</t>
+  </si>
+  <si>
+    <t>최재영</t>
+  </si>
+  <si>
+    <t>프로젝트 재료 구입 품의서</t>
+  </si>
+  <si>
+    <t>팀      번      호</t>
+  </si>
+  <si>
+    <t>작  성     일  자</t>
+  </si>
+  <si>
+    <t>팀  원     성  명</t>
+  </si>
+  <si>
+    <t>팀      명      칭</t>
+  </si>
+  <si>
+    <t>팀  장     성  명</t>
+  </si>
+  <si>
+    <t>과      정      명</t>
+  </si>
+  <si>
+    <t>010-5626-2050</t>
+  </si>
+  <si>
+    <t>아두이노 미니 릴레이모듈</t>
+  </si>
+  <si>
+    <t>https://www.coupang.com/vp/products/7046278942?itemId=17438366161&amp;vendorItemId=3061670979&amp;src=1191000&amp;spec=10999999&amp;addtag=400&amp;ctag=7046278942&amp;lptag=CFM19697740&amp;itime=20231114160047&amp;pageType=PRODUCT&amp;pageValue=7046278942&amp;wPcid=28014941380193789532203&amp;wRef=&amp;wTime=20231114160047&amp;redirect=landing&amp;mcid=8ecc71a31745420cb55f405aeb495737&amp;sharesource=sharebutton&amp;style=&amp;isshortened=Y&amp;settlement=N&amp;isAddedCart</t>
+  </si>
+  <si>
+    <t>아두이노 CdS 광/조도 센서 모듈</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬러 미니 브레드보드 170핀</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>투명</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1327438</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1329504</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1077951</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipTIME A1004</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>라즈베리 카메라</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1214325</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇팔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가구성 x</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>단가 VAT 포함</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1278835</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1358496</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1321195</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://robotscience.kr/goods/view?no=17285</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이블 타이</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨베이어 벨트</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털 멀티미터 UT33A+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=6500232</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1215038</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>드라이버 세트</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=10991321</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>https://ideaplay6173.cafe24.com/product/detail.html?product_no=148&amp;cate_no=1&amp;display_group=3#none</t>
-  </si>
-  <si>
-    <t>모델명</t>
-  </si>
-  <si>
-    <t>부품명</t>
-  </si>
-  <si>
-    <t>수량</t>
-  </si>
-  <si>
-    <t>총 계</t>
-  </si>
-  <si>
-    <t>번호</t>
-  </si>
-  <si>
-    <t>3조</t>
-  </si>
-  <si>
-    <t>최재영</t>
-  </si>
-  <si>
-    <t>프로젝트 재료 구입 품의서</t>
-  </si>
-  <si>
-    <t>팀      번      호</t>
-  </si>
-  <si>
-    <t>작  성     일  자</t>
-  </si>
-  <si>
-    <t>팀  원     성  명</t>
-  </si>
-  <si>
-    <t>팀      명      칭</t>
-  </si>
-  <si>
-    <t>팀  장     성  명</t>
-  </si>
-  <si>
-    <t>과      정      명</t>
-  </si>
-  <si>
-    <t>010-5626-2050</t>
-  </si>
-  <si>
-    <t>아두이노 미니 릴레이모듈</t>
-  </si>
-  <si>
-    <t>https://www.coupang.com/vp/products/7046278942?itemId=17438366161&amp;vendorItemId=3061670979&amp;src=1191000&amp;spec=10999999&amp;addtag=400&amp;ctag=7046278942&amp;lptag=CFM19697740&amp;itime=20231114160047&amp;pageType=PRODUCT&amp;pageValue=7046278942&amp;wPcid=28014941380193789532203&amp;wRef=&amp;wTime=20231114160047&amp;redirect=landing&amp;mcid=8ecc71a31745420cb55f405aeb495737&amp;sharesource=sharebutton&amp;style=&amp;isshortened=Y&amp;settlement=N&amp;isAddedCart</t>
-  </si>
-  <si>
-    <t>아두이노 CdS 광/조도 센서 모듈</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>컬러 미니 브레드보드 170핀</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>투명</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1327438</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1329504</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1077951</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ipTIME A1004</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>라즈베리 카메라</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1214325</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=10919287</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>로봇팔</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가구성 x</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>멀티미터</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=12539421</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>건전지 AA(어댑터로 변경 예정)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>배터리케이스(12V)(삭제 예정)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>합계</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>단가 VAT 포함</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1313388</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1278835</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1358496</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1321195</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://robotscience.kr/goods/view?no=17285</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>케이블 타이</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>선 정리 모듈</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>대형</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>컨베이어 벨트</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>일자, 십자 드라이버</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이템 사각 전선몰딩 5호 3p</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>백색</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.coupang.com/vp/products/169303286?itemId=484535253&amp;vendorItemId=4220280211&amp;q=%EC%BC%80%EC%9D%B4%EC%97%A0+%EC%82%AC%EA%B0%81+%EC%A0%84%EC%84%A0%EB%AA%B0%EB%94%A9+5%ED%98%B8&amp;itemsCount=36&amp;searchId=76ee96d81d2844f6b3cc1a99c31430a4&amp;rank=1&amp;isAddedCart=</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC잭 전원케이블 (FEMALE)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZH-LC014</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1321157</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>아두이노 호환 12V 1.5A KC 인증 아답터</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZH-PSU01</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1330492</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>오딧세이(ODYSSEY) 호환 12V 2A KC 인증 아답터</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZH-PSU03</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1342846</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Hitec] 서보모터</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HS-311</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>브레드보드 400핀</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZH-BBAD-005</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1328148</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>큐브프레임 두께15mm 빅토리아그레이 PB합판 나무판자 목재재단 판대기</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>니게르화이트 1500mmX500mm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=11225</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1362013</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1108,13 +1163,13 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="30.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.75" style="19" customWidth="1"/>
     <col min="4" max="4" width="6.25" style="19" customWidth="1"/>
     <col min="5" max="6" width="11.25" style="20" customWidth="1"/>
@@ -1127,7 +1182,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -1144,15 +1199,15 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="31" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="31"/>
       <c r="E4" s="32" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="23">
@@ -1161,45 +1216,45 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="32" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="22" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="31" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="32" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F6" s="33"/>
       <c r="G6" s="22" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="37" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
@@ -1209,36 +1264,36 @@
     <row r="8" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>1</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1250,8 +1305,8 @@
         <f>D10*E10</f>
         <v>45000</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>20</v>
+      <c r="G10" s="28" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1259,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="1">
@@ -1273,7 +1328,7 @@
         <v>46640</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1281,21 +1336,21 @@
         <v>3</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="9">
         <v>24200</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" si="0"/>
-        <v>48400</v>
+        <v>24200</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1303,43 +1358,45 @@
         <v>4</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D13" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" s="9">
-        <v>7150</v>
+        <v>16610</v>
       </c>
       <c r="F13" s="10">
         <f t="shared" si="0"/>
-        <v>35750</v>
+        <v>99660</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>5</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" s="9">
         <v>990</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" si="0"/>
-        <v>6930</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>2</v>
+        <v>7920</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1347,7 +1404,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1">
@@ -1361,7 +1418,7 @@
         <v>5940</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1369,21 +1426,21 @@
         <v>9</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" s="9">
         <v>1100</v>
       </c>
       <c r="F16" s="10">
         <f t="shared" si="0"/>
-        <v>4400</v>
+        <v>3300</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1391,21 +1448,23 @@
         <v>10</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="15"/>
+        <v>63</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="9">
-        <v>14300</v>
+        <v>6380</v>
       </c>
       <c r="F17" s="10">
         <f t="shared" si="0"/>
-        <v>14300</v>
+        <v>6380</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1413,43 +1472,43 @@
         <v>11</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="9">
-        <v>2600</v>
+        <v>935</v>
       </c>
       <c r="F18" s="10">
         <f t="shared" si="0"/>
-        <v>7800</v>
+        <v>1870</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>12</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="26">
         <v>935</v>
       </c>
       <c r="F19" s="10">
         <f t="shared" si="0"/>
         <v>935</v>
       </c>
-      <c r="G19" s="28" t="s">
-        <v>59</v>
+      <c r="G19" s="6" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1457,274 +1516,312 @@
         <v>13</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="26">
+        <v>2</v>
+      </c>
+      <c r="E20" s="9">
         <v>935</v>
       </c>
       <c r="F20" s="10">
         <f t="shared" si="0"/>
-        <v>935</v>
+        <v>1870</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>14</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="3"/>
+      <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="9">
-        <v>935</v>
+        <v>43300</v>
       </c>
       <c r="F21" s="10">
         <f t="shared" si="0"/>
-        <v>935</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>43300</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
-        <v>16</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="9">
-        <v>2310</v>
+        <v>14850</v>
       </c>
       <c r="F22" s="10">
         <f t="shared" si="0"/>
+        <v>14850</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1540</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="0"/>
         <v>4620</v>
       </c>
-      <c r="G22" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="G23" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
         <v>17</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="9">
+        <v>880</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="0"/>
+        <v>4400</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="9">
-        <v>27320</v>
-      </c>
-      <c r="F23" s="10">
-        <f t="shared" si="0"/>
-        <v>27320</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>18</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="1">
+      <c r="E25" s="9">
+        <v>55000</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="0"/>
+        <v>55000</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="9">
-        <v>14850</v>
-      </c>
-      <c r="F24" s="10">
-        <f t="shared" si="0"/>
-        <v>14850</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <v>19</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="1">
-        <v>2</v>
-      </c>
-      <c r="E25" s="9">
-        <v>1540</v>
-      </c>
-      <c r="F25" s="10">
-        <f t="shared" si="0"/>
-        <v>3080</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>20</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="1">
-        <v>4</v>
-      </c>
       <c r="E26" s="9">
-        <v>880</v>
+        <v>27500</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="0"/>
-        <v>3520</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>42</v>
+        <v>27500</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="C27" s="2"/>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="E27" s="9">
-        <v>55000</v>
+        <v>4290</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" si="0"/>
-        <v>55000</v>
+        <v>4290</v>
       </c>
       <c r="G27" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>21</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
+      <c r="C28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="9">
+        <v>550</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="0"/>
+        <v>1650</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9">
+        <v>8349</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" si="0"/>
+        <v>8349</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="9">
+        <v>8450</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="0"/>
+        <v>8450</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
         <v>24</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="1">
+      <c r="B31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="1">
         <v>1</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+      <c r="E31" s="9">
+        <v>7040</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" si="0"/>
+        <v>7040</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
         <v>25</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
-        <v>26</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
-        <v>27</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
-        <v>28</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="9"/>
+      <c r="B32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9">
+        <v>880</v>
+      </c>
       <c r="F32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="6"/>
+        <v>880</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
       <c r="E33" s="36"/>
       <c r="F33" s="14">
         <f>SUM(F10:F32)</f>
-        <v>326355</v>
+        <v>424044</v>
       </c>
       <c r="G33" s="12"/>
     </row>
@@ -1748,20 +1845,25 @@
   <hyperlinks>
     <hyperlink ref="G14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="G10" r:id="rId2" location="none" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G22" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G24" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G23" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G25" r:id="rId6" xr:uid="{26B772D8-B701-45E8-A58E-EDE4E328555A}"/>
-    <hyperlink ref="G26" r:id="rId7" xr:uid="{22872939-2EE6-4282-AC29-D0BA98D91463}"/>
-    <hyperlink ref="G12" r:id="rId8" xr:uid="{C29A9B3F-3D72-412E-9732-765F8AF3AFC8}"/>
-    <hyperlink ref="G11" r:id="rId9" xr:uid="{3CDDA6E1-11E5-4E50-B399-06AE559216A4}"/>
-    <hyperlink ref="G18" r:id="rId10" xr:uid="{6A525696-25A8-4692-A91A-0BE463D5AFAE}"/>
-    <hyperlink ref="G17" r:id="rId11" xr:uid="{87D06CDB-7735-4711-AD89-841ECE5F4DBE}"/>
-    <hyperlink ref="G13" r:id="rId12" xr:uid="{6C36CFB4-395E-4110-8447-12174A78C08A}"/>
-    <hyperlink ref="G15" r:id="rId13" xr:uid="{E5F53235-8E25-49D2-B6A8-2B9CC7807098}"/>
-    <hyperlink ref="G16" r:id="rId14" xr:uid="{751407F4-53E6-4560-92F8-42383C412FA8}"/>
-    <hyperlink ref="G19" r:id="rId15" xr:uid="{B7E548C5-12E9-4CBB-945D-B17E58EB9DD8}"/>
-    <hyperlink ref="G27" r:id="rId16" xr:uid="{A7C06625-E2B0-434A-8FCF-4CA6773F894A}"/>
+    <hyperlink ref="G22" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G21" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G23" r:id="rId5" xr:uid="{26B772D8-B701-45E8-A58E-EDE4E328555A}"/>
+    <hyperlink ref="G24" r:id="rId6" xr:uid="{22872939-2EE6-4282-AC29-D0BA98D91463}"/>
+    <hyperlink ref="G12" r:id="rId7" xr:uid="{C29A9B3F-3D72-412E-9732-765F8AF3AFC8}"/>
+    <hyperlink ref="G11" r:id="rId8" xr:uid="{3CDDA6E1-11E5-4E50-B399-06AE559216A4}"/>
+    <hyperlink ref="G15" r:id="rId9" xr:uid="{E5F53235-8E25-49D2-B6A8-2B9CC7807098}"/>
+    <hyperlink ref="G16" r:id="rId10" xr:uid="{751407F4-53E6-4560-92F8-42383C412FA8}"/>
+    <hyperlink ref="G18" r:id="rId11" xr:uid="{B7E548C5-12E9-4CBB-945D-B17E58EB9DD8}"/>
+    <hyperlink ref="G25" r:id="rId12" xr:uid="{A7C06625-E2B0-434A-8FCF-4CA6773F894A}"/>
+    <hyperlink ref="G26" r:id="rId13" xr:uid="{58BFFED1-4FE1-4C39-897E-C21ED376E900}"/>
+    <hyperlink ref="G27" r:id="rId14" xr:uid="{5065EBA9-0A53-4F22-AED5-46371FECB96B}"/>
+    <hyperlink ref="G29" r:id="rId15" xr:uid="{0B7FA510-25FE-478B-84BE-A081B9276502}"/>
+    <hyperlink ref="G30" r:id="rId16" display="https://www.coupang.com/vp/products/169303286?itemId=484535253&amp;vendorItemId=4220280211&amp;q=%EC%BC%80%EC%9D%B4%EC%97%A0+%EC%82%AC%EA%B0%81+%EC%A0%84%EC%84%A0%EB%AA%B0%EB%94%A9+5%ED%98%B8&amp;itemsCount=36&amp;searchId=76ee96d81d2844f6b3cc1a99c31430a4&amp;rank=1&amp;isAddedCart=" xr:uid="{BB237444-3699-4A1A-A4C7-33565E0E7567}"/>
+    <hyperlink ref="G28" r:id="rId17" xr:uid="{65046DFE-468B-45A0-86C3-33E127A841CD}"/>
+    <hyperlink ref="G17" r:id="rId18" xr:uid="{405AAABE-B82D-4553-BEE4-AEE587C6B3DC}"/>
+    <hyperlink ref="G31" r:id="rId19" xr:uid="{CE869D09-8B24-4C12-8C55-91AA6FF3B6A7}"/>
+    <hyperlink ref="G32" r:id="rId20" xr:uid="{CA9E74A4-4603-4FA4-8FF9-C6474373D782}"/>
+    <hyperlink ref="G13" r:id="rId21" xr:uid="{74FD6400-C27D-4CB4-97BD-230F9F7D6F6E}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait"/>

--- a/부품견적서/(최신)재료구입 품의서(3조).xlsx
+++ b/부품견적서/(최신)재료구입 품의서(3조).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git test\doc\부품견적서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDC0BB1-1C97-4D8C-A117-A4B977514B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D2CA1C-8B9F-493C-810D-FC7BF1B0AEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>https://www.devicemart.co.kr/goods/view?no=1321192</t>
   </si>
@@ -313,7 +313,19 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1362013</t>
+    <t>https://www.devicemart.co.kr/goods/view?no=1327441</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZH-SSBH-002</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기용 절연테이프 19mm*10m(검정)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=9838</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -654,7 +666,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -669,15 +687,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -685,6 +694,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1160,10 +1172,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1181,15 +1193,15 @@
       <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
@@ -1198,68 +1210,68 @@
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="33"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="23">
         <v>45244</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="33"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="33"/>
+      <c r="F6" s="35"/>
       <c r="G6" s="22" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="37" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
@@ -1324,7 +1336,7 @@
         <v>46640</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" ref="F11:F32" si="0">D11*E11</f>
+        <f t="shared" ref="F11:F33" si="0">D11*E11</f>
         <v>46640</v>
       </c>
       <c r="G11" s="27" t="s">
@@ -1384,16 +1396,18 @@
       <c r="B14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="D14" s="1">
         <v>8</v>
       </c>
       <c r="E14" s="9">
-        <v>990</v>
+        <v>1100</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" si="0"/>
-        <v>7920</v>
+        <v>8800</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>77</v>
@@ -1430,14 +1444,14 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="9">
         <v>1100</v>
       </c>
       <c r="F16" s="10">
         <f t="shared" si="0"/>
-        <v>3300</v>
+        <v>2200</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>45</v>
@@ -1792,47 +1806,63 @@
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="9">
+        <v>660</v>
+      </c>
+      <c r="F32" s="10">
+        <f t="shared" si="0"/>
+        <v>1320</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>26</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D33" s="1">
         <v>1</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E33" s="9">
         <v>880</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F33" s="10">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="G32" s="28" t="s">
+      <c r="G33" s="28" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="13" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="14">
-        <f>SUM(F10:F32)</f>
-        <v>424044</v>
-      </c>
-      <c r="G33" s="12"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="14">
+        <f>SUM(F10:F33)</f>
+        <v>425144</v>
+      </c>
+      <c r="G34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
@@ -1840,30 +1870,37 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G10" r:id="rId2" location="none" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G22" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G21" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G23" r:id="rId5" xr:uid="{26B772D8-B701-45E8-A58E-EDE4E328555A}"/>
-    <hyperlink ref="G24" r:id="rId6" xr:uid="{22872939-2EE6-4282-AC29-D0BA98D91463}"/>
-    <hyperlink ref="G12" r:id="rId7" xr:uid="{C29A9B3F-3D72-412E-9732-765F8AF3AFC8}"/>
-    <hyperlink ref="G11" r:id="rId8" xr:uid="{3CDDA6E1-11E5-4E50-B399-06AE559216A4}"/>
-    <hyperlink ref="G15" r:id="rId9" xr:uid="{E5F53235-8E25-49D2-B6A8-2B9CC7807098}"/>
-    <hyperlink ref="G16" r:id="rId10" xr:uid="{751407F4-53E6-4560-92F8-42383C412FA8}"/>
-    <hyperlink ref="G18" r:id="rId11" xr:uid="{B7E548C5-12E9-4CBB-945D-B17E58EB9DD8}"/>
-    <hyperlink ref="G25" r:id="rId12" xr:uid="{A7C06625-E2B0-434A-8FCF-4CA6773F894A}"/>
-    <hyperlink ref="G26" r:id="rId13" xr:uid="{58BFFED1-4FE1-4C39-897E-C21ED376E900}"/>
-    <hyperlink ref="G27" r:id="rId14" xr:uid="{5065EBA9-0A53-4F22-AED5-46371FECB96B}"/>
-    <hyperlink ref="G29" r:id="rId15" xr:uid="{0B7FA510-25FE-478B-84BE-A081B9276502}"/>
-    <hyperlink ref="G30" r:id="rId16" display="https://www.coupang.com/vp/products/169303286?itemId=484535253&amp;vendorItemId=4220280211&amp;q=%EC%BC%80%EC%9D%B4%EC%97%A0+%EC%82%AC%EA%B0%81+%EC%A0%84%EC%84%A0%EB%AA%B0%EB%94%A9+5%ED%98%B8&amp;itemsCount=36&amp;searchId=76ee96d81d2844f6b3cc1a99c31430a4&amp;rank=1&amp;isAddedCart=" xr:uid="{BB237444-3699-4A1A-A4C7-33565E0E7567}"/>
-    <hyperlink ref="G28" r:id="rId17" xr:uid="{65046DFE-468B-45A0-86C3-33E127A841CD}"/>
-    <hyperlink ref="G17" r:id="rId18" xr:uid="{405AAABE-B82D-4553-BEE4-AEE587C6B3DC}"/>
-    <hyperlink ref="G31" r:id="rId19" xr:uid="{CE869D09-8B24-4C12-8C55-91AA6FF3B6A7}"/>
-    <hyperlink ref="G32" r:id="rId20" xr:uid="{CA9E74A4-4603-4FA4-8FF9-C6474373D782}"/>
-    <hyperlink ref="G13" r:id="rId21" xr:uid="{74FD6400-C27D-4CB4-97BD-230F9F7D6F6E}"/>
+    <hyperlink ref="G10" r:id="rId1" location="none" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G22" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G21" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G23" r:id="rId4" xr:uid="{26B772D8-B701-45E8-A58E-EDE4E328555A}"/>
+    <hyperlink ref="G24" r:id="rId5" xr:uid="{22872939-2EE6-4282-AC29-D0BA98D91463}"/>
+    <hyperlink ref="G12" r:id="rId6" xr:uid="{C29A9B3F-3D72-412E-9732-765F8AF3AFC8}"/>
+    <hyperlink ref="G11" r:id="rId7" xr:uid="{3CDDA6E1-11E5-4E50-B399-06AE559216A4}"/>
+    <hyperlink ref="G15" r:id="rId8" xr:uid="{E5F53235-8E25-49D2-B6A8-2B9CC7807098}"/>
+    <hyperlink ref="G16" r:id="rId9" xr:uid="{751407F4-53E6-4560-92F8-42383C412FA8}"/>
+    <hyperlink ref="G18" r:id="rId10" xr:uid="{B7E548C5-12E9-4CBB-945D-B17E58EB9DD8}"/>
+    <hyperlink ref="G25" r:id="rId11" xr:uid="{A7C06625-E2B0-434A-8FCF-4CA6773F894A}"/>
+    <hyperlink ref="G26" r:id="rId12" xr:uid="{58BFFED1-4FE1-4C39-897E-C21ED376E900}"/>
+    <hyperlink ref="G27" r:id="rId13" xr:uid="{5065EBA9-0A53-4F22-AED5-46371FECB96B}"/>
+    <hyperlink ref="G29" r:id="rId14" xr:uid="{0B7FA510-25FE-478B-84BE-A081B9276502}"/>
+    <hyperlink ref="G30" r:id="rId15" display="https://www.coupang.com/vp/products/169303286?itemId=484535253&amp;vendorItemId=4220280211&amp;q=%EC%BC%80%EC%9D%B4%EC%97%A0+%EC%82%AC%EA%B0%81+%EC%A0%84%EC%84%A0%EB%AA%B0%EB%94%A9+5%ED%98%B8&amp;itemsCount=36&amp;searchId=76ee96d81d2844f6b3cc1a99c31430a4&amp;rank=1&amp;isAddedCart=" xr:uid="{BB237444-3699-4A1A-A4C7-33565E0E7567}"/>
+    <hyperlink ref="G28" r:id="rId16" xr:uid="{65046DFE-468B-45A0-86C3-33E127A841CD}"/>
+    <hyperlink ref="G17" r:id="rId17" xr:uid="{405AAABE-B82D-4553-BEE4-AEE587C6B3DC}"/>
+    <hyperlink ref="G31" r:id="rId18" xr:uid="{CE869D09-8B24-4C12-8C55-91AA6FF3B6A7}"/>
+    <hyperlink ref="G33" r:id="rId19" xr:uid="{CA9E74A4-4603-4FA4-8FF9-C6474373D782}"/>
+    <hyperlink ref="G13" r:id="rId20" xr:uid="{74FD6400-C27D-4CB4-97BD-230F9F7D6F6E}"/>
+    <hyperlink ref="G14" r:id="rId21" xr:uid="{EA4E804C-36C8-4AC8-AA23-0A19FA9A3804}"/>
+    <hyperlink ref="G32" r:id="rId22" xr:uid="{B4DDBA11-9E9E-426B-AAB5-271E54F528FA}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait"/>

--- a/부품견적서/(최신)재료구입 품의서(3조).xlsx
+++ b/부품견적서/(최신)재료구입 품의서(3조).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git test\doc\부품견적서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D2CA1C-8B9F-493C-810D-FC7BF1B0AEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB010EC-A0E7-4D7E-89B6-BA3F1F213BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요약" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>https://www.devicemart.co.kr/goods/view?no=1321192</t>
   </si>
@@ -201,10 +201,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>대형</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>컨베이어 벨트</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -221,14 +217,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>드라이버 세트</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=10991321</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>https://ideaplay6173.cafe24.com/product/detail.html?product_no=148&amp;cate_no=1&amp;display_group=3#none</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -326,6 +314,10 @@
   </si>
   <si>
     <t>https://www.devicemart.co.kr/goods/view?no=9838</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성형(서보DC모터-중형)속도조절가능 (+20,000원)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -666,6 +658,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -675,18 +682,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -694,9 +689,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1172,17 +1164,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="19" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="19" customWidth="1"/>
+    <col min="3" max="3" width="41.875" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.25" style="19" customWidth="1"/>
     <col min="5" max="6" width="11.25" style="20" customWidth="1"/>
     <col min="7" max="7" width="45.375" style="24" customWidth="1"/>
@@ -1193,15 +1185,15 @@
       <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
@@ -1210,68 +1202,68 @@
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="35"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="23">
         <v>45244</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="35"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="35"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="22" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="36" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
     </row>
     <row r="8" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
@@ -1302,23 +1294,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="9">
         <v>45000</v>
       </c>
       <c r="F10" s="10">
         <f>D10*E10</f>
-        <v>45000</v>
+        <v>90000</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1336,7 +1328,7 @@
         <v>46640</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" ref="F11:F33" si="0">D11*E11</f>
+        <f t="shared" ref="F11:F32" si="0">D11*E11</f>
         <v>46640</v>
       </c>
       <c r="G11" s="27" t="s">
@@ -1370,10 +1362,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D13" s="1">
         <v>6</v>
@@ -1386,7 +1378,7 @@
         <v>99660</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1397,7 +1389,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D14" s="1">
         <v>8</v>
@@ -1410,7 +1402,7 @@
         <v>8800</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1462,10 +1454,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -1478,7 +1470,7 @@
         <v>6380</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1552,10 +1544,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -1602,14 +1594,14 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="9">
         <v>1540</v>
       </c>
       <c r="F23" s="10">
         <f t="shared" si="0"/>
-        <v>4620</v>
+        <v>3080</v>
       </c>
       <c r="G23" s="27" t="s">
         <v>34</v>
@@ -1668,7 +1660,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1">
@@ -1682,7 +1674,7 @@
         <v>27500</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1704,7 +1696,7 @@
         <v>4290</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1712,10 +1704,10 @@
         <v>21</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
@@ -1728,7 +1720,7 @@
         <v>1650</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1738,19 +1730,21 @@
       <c r="B29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
       <c r="E29" s="9">
-        <v>8349</v>
+        <v>8450</v>
       </c>
       <c r="F29" s="10">
         <f t="shared" si="0"/>
-        <v>8349</v>
+        <v>8450</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1758,23 +1752,23 @@
         <v>23</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
       <c r="E30" s="9">
-        <v>8450</v>
+        <v>7040</v>
       </c>
       <c r="F30" s="10">
         <f t="shared" si="0"/>
-        <v>8450</v>
+        <v>7040</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1782,23 +1776,21 @@
         <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" s="9">
-        <v>7040</v>
+        <v>660</v>
       </c>
       <c r="F31" s="10">
         <f t="shared" si="0"/>
-        <v>7040</v>
+        <v>1320</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1806,63 +1798,47 @@
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="D32" s="1">
         <v>2</v>
       </c>
       <c r="E32" s="9">
-        <v>660</v>
+        <v>880</v>
       </c>
       <c r="F32" s="10">
         <f t="shared" si="0"/>
-        <v>1320</v>
+        <v>1760</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
-        <v>26</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="9">
-        <v>880</v>
-      </c>
-      <c r="F33" s="10">
-        <f t="shared" si="0"/>
-        <v>880</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="14">
-        <f>SUM(F10:F33)</f>
-        <v>425144</v>
-      </c>
-      <c r="G34" s="12"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="14">
+        <f>SUM(F10:F32)</f>
+        <v>461135</v>
+      </c>
+      <c r="G33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
@@ -1870,12 +1846,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
@@ -1892,15 +1862,14 @@
     <hyperlink ref="G25" r:id="rId11" xr:uid="{A7C06625-E2B0-434A-8FCF-4CA6773F894A}"/>
     <hyperlink ref="G26" r:id="rId12" xr:uid="{58BFFED1-4FE1-4C39-897E-C21ED376E900}"/>
     <hyperlink ref="G27" r:id="rId13" xr:uid="{5065EBA9-0A53-4F22-AED5-46371FECB96B}"/>
-    <hyperlink ref="G29" r:id="rId14" xr:uid="{0B7FA510-25FE-478B-84BE-A081B9276502}"/>
-    <hyperlink ref="G30" r:id="rId15" display="https://www.coupang.com/vp/products/169303286?itemId=484535253&amp;vendorItemId=4220280211&amp;q=%EC%BC%80%EC%9D%B4%EC%97%A0+%EC%82%AC%EA%B0%81+%EC%A0%84%EC%84%A0%EB%AA%B0%EB%94%A9+5%ED%98%B8&amp;itemsCount=36&amp;searchId=76ee96d81d2844f6b3cc1a99c31430a4&amp;rank=1&amp;isAddedCart=" xr:uid="{BB237444-3699-4A1A-A4C7-33565E0E7567}"/>
-    <hyperlink ref="G28" r:id="rId16" xr:uid="{65046DFE-468B-45A0-86C3-33E127A841CD}"/>
-    <hyperlink ref="G17" r:id="rId17" xr:uid="{405AAABE-B82D-4553-BEE4-AEE587C6B3DC}"/>
-    <hyperlink ref="G31" r:id="rId18" xr:uid="{CE869D09-8B24-4C12-8C55-91AA6FF3B6A7}"/>
-    <hyperlink ref="G33" r:id="rId19" xr:uid="{CA9E74A4-4603-4FA4-8FF9-C6474373D782}"/>
-    <hyperlink ref="G13" r:id="rId20" xr:uid="{74FD6400-C27D-4CB4-97BD-230F9F7D6F6E}"/>
-    <hyperlink ref="G14" r:id="rId21" xr:uid="{EA4E804C-36C8-4AC8-AA23-0A19FA9A3804}"/>
-    <hyperlink ref="G32" r:id="rId22" xr:uid="{B4DDBA11-9E9E-426B-AAB5-271E54F528FA}"/>
+    <hyperlink ref="G29" r:id="rId14" display="https://www.coupang.com/vp/products/169303286?itemId=484535253&amp;vendorItemId=4220280211&amp;q=%EC%BC%80%EC%9D%B4%EC%97%A0+%EC%82%AC%EA%B0%81+%EC%A0%84%EC%84%A0%EB%AA%B0%EB%94%A9+5%ED%98%B8&amp;itemsCount=36&amp;searchId=76ee96d81d2844f6b3cc1a99c31430a4&amp;rank=1&amp;isAddedCart=" xr:uid="{BB237444-3699-4A1A-A4C7-33565E0E7567}"/>
+    <hyperlink ref="G28" r:id="rId15" xr:uid="{65046DFE-468B-45A0-86C3-33E127A841CD}"/>
+    <hyperlink ref="G17" r:id="rId16" xr:uid="{405AAABE-B82D-4553-BEE4-AEE587C6B3DC}"/>
+    <hyperlink ref="G30" r:id="rId17" xr:uid="{CE869D09-8B24-4C12-8C55-91AA6FF3B6A7}"/>
+    <hyperlink ref="G32" r:id="rId18" xr:uid="{CA9E74A4-4603-4FA4-8FF9-C6474373D782}"/>
+    <hyperlink ref="G13" r:id="rId19" xr:uid="{74FD6400-C27D-4CB4-97BD-230F9F7D6F6E}"/>
+    <hyperlink ref="G14" r:id="rId20" xr:uid="{EA4E804C-36C8-4AC8-AA23-0A19FA9A3804}"/>
+    <hyperlink ref="G31" r:id="rId21" xr:uid="{B4DDBA11-9E9E-426B-AAB5-271E54F528FA}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait"/>
